--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Nome</t>
   </si>
@@ -26,28 +26,70 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>a</t>
+    <t>jogo1</t>
   </si>
   <si>
     <t>MOBA</t>
   </si>
   <si>
-    <t>2022-01-03</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>desenvolvedor1</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>jogo2</t>
   </si>
   <si>
     <t>RPG</t>
   </si>
   <si>
-    <t>2022-01-05</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>2022-01-20</t>
+    <t>desenvolvedor2</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>jogo3</t>
+  </si>
+  <si>
+    <t>PUZZLE</t>
+  </si>
+  <si>
+    <t>desenvolvedor3</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>jogo4</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>desenvolvedor4</t>
+  </si>
+  <si>
+    <t>2020-01-17</t>
+  </si>
+  <si>
+    <t>jogo5</t>
+  </si>
+  <si>
+    <t>desenvolvedor5</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>jogo8</t>
+  </si>
+  <si>
+    <t>desenvolvedor8</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
   </si>
 </sst>
 </file>
@@ -92,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,38 +162,80 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
